--- a/public_html/archivos/2010_1072_EAU.xlsx
+++ b/public_html/archivos/2010_1072_EAU.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
   <si>
     <t>INSTITUCION</t>
   </si>
@@ -285,9 +285,6 @@
     <t>GASTO_MAT_PRIMA</t>
   </si>
   <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
     <t>UNIVERSIDAD NAVAL COMANDANTE RAFAEL MORÁN VALVERDE</t>
   </si>
   <si>
@@ -360,19 +357,10 @@
     <t>FUNCIONANDO NORMALMENTE</t>
   </si>
   <si>
-    <t>07702</t>
-  </si>
-  <si>
-    <t>VIGENTE</t>
-  </si>
-  <si>
     <t>LICENCIATURA EN LOGISTICA NAVAL</t>
   </si>
   <si>
     <t>LICENCIADO EN LOGISTICA NAVAL</t>
-  </si>
-  <si>
-    <t>07703</t>
   </si>
   <si>
     <t>SECRETARÍA NACIONAL DE EDUCACIÓN SUPERIOR, CIENCIA, TECNOLOGÍA E INNOVACIÓN</t>
@@ -789,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM6"/>
+  <dimension ref="A1:CK6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,13 +864,11 @@
     <col min="87" max="87" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="7" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:89" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -892,9 +878,9 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:91" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -904,7 +890,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,106 +1158,100 @@
       <c r="CK4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM4" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1072</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="Q5" s="5">
         <v>65</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="T5" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U5" s="5">
         <v>4</v>
       </c>
       <c r="V5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="Y5" s="5">
         <v>1</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA5" s="5">
         <v>0</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF5" s="4">
         <v>2006</v>
@@ -1280,28 +1260,28 @@
         <v>182</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AL5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AL5" s="4" t="s">
+      <c r="AM5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AM5" s="4" t="s">
+      <c r="AN5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AN5" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="AO5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP5" s="4">
         <v>4</v>
@@ -1316,22 +1296,22 @@
         <v>286</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU5" s="4">
         <v>12140</v>
       </c>
       <c r="AV5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AZ5" s="4">
         <v>4</v>
@@ -1406,19 +1386,19 @@
         <v>120</v>
       </c>
       <c r="BX5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BY5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BZ5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CA5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CB5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CC5" s="4">
         <v>0</v>
@@ -1439,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="CI5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CJ5" s="7">
         <v>0</v>
@@ -1447,106 +1427,100 @@
       <c r="CK5" s="7">
         <v>0</v>
       </c>
-      <c r="CL5" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="CM5" s="4" t="s">
-        <v>115</v>
-      </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1072</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="O6" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="5">
         <v>65</v>
       </c>
       <c r="R6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="T6" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U6" s="5">
         <v>4</v>
       </c>
       <c r="V6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="Y6" s="5">
         <v>1</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA6" s="5">
         <v>0</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF6" s="4">
         <v>2006</v>
@@ -1555,28 +1529,28 @@
         <v>182</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AL6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AL6" s="4" t="s">
+      <c r="AM6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AM6" s="4" t="s">
+      <c r="AN6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AN6" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="AO6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP6" s="4">
         <v>4</v>
@@ -1591,22 +1565,22 @@
         <v>289</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU6" s="4">
         <v>12140</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AZ6" s="4">
         <v>4</v>
@@ -1681,19 +1655,19 @@
         <v>12</v>
       </c>
       <c r="BX6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BY6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BZ6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CA6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CB6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CC6" s="4">
         <v>0</v>
@@ -1714,19 +1688,13 @@
         <v>0</v>
       </c>
       <c r="CI6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CJ6" s="7">
         <v>0</v>
       </c>
       <c r="CK6" s="7">
         <v>0</v>
-      </c>
-      <c r="CL6" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="CM6" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
